--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/01.BaoGiaBH/BG_SEA_200625.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/01.BaoGiaBH/BG_SEA_200625.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang6\01.BaoGiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB261A9B-7640-45EF-97CF-70718F0E4F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D481835-2FE7-43E7-A289-136EF9A56C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,6 +545,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,36 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,81 +1024,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1108,11 +1108,11 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1122,11 +1122,11 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1137,11 +1137,11 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1218,17 +1218,17 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="12">
         <f>SUM(J11:J11)</f>
         <v>140000</v>
@@ -1254,44 +1254,44 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="6"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="19"/>
       <c r="AA16" s="2"/>
     </row>
@@ -1337,20 +1337,20 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,12 +1427,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A15:D15"/>
@@ -1440,17 +1439,18 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup scale="93" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="25" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
